--- a/500all/speech_level/speeches_CHRG-114hhrg96910.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96910.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. The committee will come to order.    Pursuant to notice, we meet today to mark up two bipartisan resolutions. Without objection, all members may have 5 days to submit statements for the record and any extraneous materials on today's business that you want to include there.    As you were all notified yesterday, we intend to consider today's measures en bloc. And so without objection, the following items previously provided to members will be considered en bloc, and are considered as read: House Resolution 348, supporting the right of the people of Ukraine to freely elect their government and determine their future. And with it, Cicilline amendment 200 in the nature of a substitute to House Resolution 348, and Cicilline second degree amendment 58 to the ANS.    Then we have House Resolution 354, expressing the sense of the House regarding the safety and security of Jewish communities in Europe, and Smith amendment 201 in the nature of a substitute to the House Resolution 354.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. Thank you for calling this markup. Let me say that I agree with every word you said. I want to put my thoughts with yours. I know we are short on time, so I will enter my full statement into the record and issue it to the press.    But I fully support these measures, and am particularly happy that our committee once again is advancing good bipartisan legislation, as we have done so often. So I ask unanimous consent that my statement be part of the record. I wish everyone a happy holiday weekend, and I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Chairman. And I thank you for bringing H. Res. 354 before the committee for markup and for your leadership on human rights issues in general and on combating anti-Semitism in particular.    Mr. Chairman, violent anti-Semitic attacks between 2013 and 2014 doubled, and in some European countries actually quadrupled. H. Res. 354 focuses on essential actions needed to prevent, mitigate, and respond to deadly anti-Semitic attacks like those in Paris, Copenhagen, and Brussels.    Specifically, it urges the U.S. Government to encourage our European allies to ensure they formally recognize, partner with, and exchange information with Jewish community security groups in their countries. There are excellent examples of this in the United States, the United Kingdom, and in France. So these best practices need to be replicated.    The resolution highlights the importance of European governments supporting several key assessments and adjusting their strategies and efforts to combat anti-Semitism accordingly. It emphasizes the importance of European governments developing public awareness and suspicious activity campaigns like ``if you see something, say something'' initiatives, helping Jewish communities developing baseline safety standards, and integrating efforts to combat violent extremism and ones to combat anti-Semitism as appropriate.    H. Res. 354 stresses relevant training for law enforcement, implementing declarations, decisions, and commitments related to anti-Semitism in the Organization for Security and Cooperation in Europe, the OSCE, and ensuring European governments have mandated and resourced senior officials to lead their anti-Semitism efforts.    Finally, the resolution affirms support for the mandate of the U.S. Special Envoy to Monitor and Combat Anti-Semitism, a position that I actually authored the amendment to create some years ago, and urges the Secretary of State to continue strong U.S. reporting on anti-Semitism.    H. Res. 354 is a blueprint for actions that are critical for the safety and security of Jewish communities in Europe and for our government's engagement with our European allies to combat anti-Semitism. The specific actions recommended here are based on consultations with leading security experts who work closely with European Jewish communities.    This resolution has broad bipartisan support. It is cosponsored by 84 Members of Congress, including 23 members of this committee. All of my fellow co-chairs of the bipartisan Task Force on Combating anti-Semitism are original cosponsors, including Ranking Member Eliot Engel, Ileana Ros-Lehtinen, Ted Deutch, who are members of this committee, and Nita Lowey, Kay Granger, Peter Roskam, and Steve Israel. It also has the strong support from many of the Jewish organizations.    I yield back, and again, I thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I want to thank you, Chairman Royce and Ranking Member Engel, for your strong support and cosponsorship of House Resolution 348, and thank you for scheduling a markup on both of these bills today.    House Res. 348 signals strong congressional support for free elections in Ukraine. I thank my many colleagues on the committee who have signed on as cosponsors as well. The democratic and economic development of Ukraine in the face of Russian aggression remains one of the most vital efforts the United States could undertake to combat Russian intransigence and show our unwavering commitment to promoting democracy and human rights around the world.    The illegal and forceful occupation of Crimea and the ongoing Russian support for separatists in eastern Ukraine are an affront to international law and diplomacy. The Minsk II agreement was an historic step toward potentially ending the violence and unrest in the country. And it is now upon the governments of Ukraine, Russia, the United States, and our European allies as implementing partners to ensure its successful execution.    A vital part of that implementation will be to hold free and fair elections throughout Ukraine, including under the terms of the agreement eventually in the Donbas region controlled by Russian-led separatists. Ukraine has local elections scheduled for most of the country except some separatist-controlled areas for October 25.    This resolution demonstrates this Congress's unwavering commitment to supporting the right of the people of Ukraine to freely elect their government and determine their future. It condemns any Russian attempts to interfere in Ukraine's elections in any way, including through intimidation, violence, or coercion.    During Ukraine's last elections, these tactics were used to prevent Ukranians from voting in certain regions. This cannot happen again. And any actions undermining these elections must be met with swift and certain international condemnation. At this delicate juncture in Ukraine's history, it is essential that the United States and our European allies continue to demonstrate steadfast support for Ukranian territorial integrity, sovereignty, and the right of the Ukranian people to participate in a free and fair electoral process.    Again, I thank my colleagues for their support and urge them to support this resolution. And with that, I yield back.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman. I want to commend you for bringing this legislation before the committee today. Russian aggression continues to violate Ukraine's political and economic sovereignty. And unfortunately, it has gone largely unrebuked around the world. If stability and peace is ever to be reestablished in Ukraine, it is vital that the people of Ukraine have the freedom to choose their own representatives, as well as take the necessary steps to ensure that their own future, without the coercion and vicious tactics orchestrated by Putin, is possible.    As the shining example of freedom and democracy, America has a duty to support the Ukranians seeking constitutional reform and free and fair elections. This measure recognizes those realities and reasserts our support for the Ukranian people to freely elect their own government. It is a timely measure. I urge its adoption, and I yield back.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. And I want to thank you and the ranking member for adding H. Res. 348 to this markup. And I want to thank the authors of the resolution. This committee has spoken loudly about not only Ukraine, but about Crimea as an integral part of the Ukraine, and that we are not conceding. And I am glad to say that the nonrecognition act on the Ukraine has in fact been incorporated into the defense authorization bill.    It is vital that we speak firmly and we back it up with sanctions and other measures so that Vladimir Putin never gets the wrong impression about our acquiescence in a violent military action that subverted the sovereignty of another country. We will not accept that. Ever. And I think it is really important this committee continues to speak with one voice and as firmly as possible on a bipartisan basis. And indeed we have.    So I thank Mr. Cicilline in particular for his leadership on this resolution, and look forward to voting for it. And thank you, Mr. Chairman, and you, Mr. Engel, the ranking member, for your leadership as well.</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Well, I hate to be the skunk at the lawn party here, but let me just note that I do support the basic goal of this legislation, which is to reaffirm that we believe as Americans that the democratic process should be followed in Ukraine, and that we are upset, and we know the great challenge there that they have.    And certainly the first two whereases, ``strongly support the right of the people of Ukraine to freely elect their government and determine their future.'' Yes. Of course. ``Urges the administration to expedite assistance to Ukraine to facilitate the political, economic, and social reforms necessary for free and fair elections that meet international standards.'' Yes. And there is no doubt about that. We want to end the conflict and upheaval that is going on that is so detrimental to all of the people of Ukraine and destabilizing to Europe. And so this puts us on record.    Unfortunately, we can't seem to go on record doing that without again giving Russia a kick in the pants, and basically ignoring what started the destabilization of Ukraine in the first place. Basically, we blame it, yes, Yanukovych was president, whereas he fled the country. It doesn't say--it doesn't start there. It doesn't start with Yanukovych fleeing the country.    This whole episode that has destabilized Ukraine started when violence, instigated by internal Ukranian opposition, as well--and they were in coordination and consultation with other foreign powers, meaning our European friends--created violence, a violent situation that led to the destabilization of an elected government.    We can close our eyes all we want, we can pretend this is all Russia. Yanukovych was an elected government. There was huge violence that was caused when he made a major policy decision. Instead of letting the election take care of it, they had massive, not just demonstrations, but we are talking about massive violence.    And I know that there has been an effort to try to make, oh, no, that was just Yanukovych attacking the demonstrators. That was not what happened. We now have every evidence, I met with a group of Ukranians just a couple nights ago, clearly, what we have was violence against an elected government. And Mr. Smith was there to see that Yanukovych was elected in a fair election. And instead of waiting for the next election, our European friends had to collude with forces inside of Ukraine to create a destabilization of an elected government.    Now, the bottom line is that has not even been touched on here. Everything is Russia's fault. Well, yes, when Yanukovych fled and the elected government was overthrown, the fact is the Russians did act, and I opposed that. I think when the Russians sent troops in that was wrong. We have every reason to condemn that. The Russians should not have sent troops in.    And yes, we need to call upon--what we have here is to make sure that we are on the side of free elections, and that we want to help the Ukranians. But then we condemn the part of outside forces, specifically the Government of Russia, ignoring the fact that other governments have been involved in overthrowing an elected government.    Either we should leave that out or we should just say ``attempts by outside forces'' and leave out this little jab at Russia. We are not going to make anything better by continuing to jab Russia rather than looking at ways we can cooperate to end the conflict in Ukraine.    Again, let's reach out--that is what happened in the Minsk agreement, which the chairman already mentioned. The Minsk agreement sets out a plan. And Russians agreed to it. Let's work with them to see how we implement the plan rather than kicking them in the pants.    Well, I am going to be opposing this, but I do think the actual goal of this, which is to try to say we are behind free elections and want Ukraine to come out of it, that certainly is a worthy goal.    This, you know, doesn't--it is not going to achieve that. It is going to actually achieve the opposite, because in Russia it will be looked at as a slap in the face. Why should we ever cooperate with these bums who are blaming it all on us and forgetting the fact that an elected government in Ukraine was overthrown?    So with that said, I stand in opposition, and I stand in favor of the spirit of what you are trying to accomplish, but this will not achieve your goal and go in the opposite direction.</t>
   </si>
   <si>
@@ -136,9 +115,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chairman. Just a little change of pace here. So Mr. Chairman, thank you. I am a cosponsor, a proud cosponsor of both resolutions. I thank the authors.    And first, I want to just say in terms of House Resolution 348, that I found our trip to Ukraine was very enlightening, and really highlighted the necessity for the free and fair elections in order for Ukraine to regain its civility.    As to House Resolution 354, and Mr. Smith, I do thank you again for that, and I do want to make a few remarks. Because I want to add my concern for the safety and security of Jewish communities in Europe. The rise of anti-Semitic incidents throughout Europe in recent years is deeply troubling. In the past 2 years, terrorists have murdered Jews in the capital cities of Belgium, Denmark, and France. Jews and Jewish institutions, synagogues, and schools across Europe have suffered numerous violent attacks.    As a result of this threatening environment, according to polls done by the ADL and other reputable organizations, more than 40 percent of Jews in Belgium, France, and Hungary are considering emigration. Journalists, scholars, and politicians are debating whether there can be a future for the Jewish community in Europe, where Jews are afraid to attend events in holy sites, and where again, according to ADL, 20 percent of European Jews have experienced at least one incident of anti-Semitic physical attack or harassment.    Fortunately, educated observers believe that today's events in Europe are not analogous to the 1930s Germany. Then, the hatred, the persecution and extermination of Jews was state-sponsored. In contrast, today's leaders across Europe are working to stem the tide of anti-Semitism, and key European leaders have spoken out against anti-Semitism and have taken concrete actions to fight it.    With that said, however, I agree with those who believe that this is a defining moment for Europe. Our European partners' and allies' ability to confront anti-Semitism will ultimately impact the very essence of the character of their nations. And as the French prime minister stated, if Jews flee in large numbers, the soul of the French Republic is at risk. France will no longer be France.    And that is one of the reasons, of course, why House Resolution 354 is so important. We must support European governments, law enforcement agencies, and other entities to bolster Jewish security and preparedness, tighten communications with Jewish communities, and combat violent extremism broadly with counterradicalization and education.    And ultimately, helping Europe stem the rising tide of anti-Semitism means helping European nations to fulfill the principles of democracy, human dignity, openness, and pluralism, and the noble principals upon which these nations were founded. I yield back.</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I thank the chairman. I appreciate the words of my friend from California, Mr. Rohrabacher, but I see this completely different. The Russian bear invaded Georgia, gobbled up one-third of the territory, and it is still in Georgia. Still hungry for more land, it went into Crimea, took it, claimed it as its own, and then still on the move, the bear went into eastern Ukraine, where it is now. And we all know that Russia now is in Syria, based on some faulty excuse.    Ukranians have the right to self-determination. This resolution says the Ukranians will decide what their government is going to be, not the Russians. Contrary to what Putin said, the Napoleon of Siberia, Ukraine should decide about Ukraine, not him.    So I think it is a good thing that the United States, a country that believes in self-determination and democracy, support the Ukraine and the Ukranians in their quest for really not just elections, but to be rid of the invaders from Russia. I think we ought to do more for Ukraine than the United States has done. Besides sending them meals ready to eat, we ought to help them defend their own sovereignty against Russia, which is another issue.    This resolution is a good idea. America stands for democracy and self-determination even for Ukranians. So I totally support it, I am glad I am a cosponsor, and I appreciate the chair and ranking member bringing this up before the committee for a vote. I yield back.</t>
   </si>
   <si>
@@ -160,9 +133,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. I want to comment about both bills. I disagree with a portion of what Dana Rohrabacher had to say for reasons everybody else has already expressed. I agree with a portion of what he said. He is right on the history, and that is a democratic elected government reneged on a giant promise, and instead of distributing campaign leaflets there was a regime-threatening presence of large numbers of people. Woe be to our state and Federal Governments if 1 million people will demand extraconstitutional governmental changes each time politicians renege on a promise. It has happened here, I am told.    There is one part of the resolution that I think we can all agree on, and it may mean more if read in an American context. We say we strongly support the right of the people of Ukraine to freely elect their government. I turn to the gentleman from Texas, Mr. Poe, and would say, as a Texan, would you think that Texans were free to elect their government if your governor was appointed by President Barack Obama rather than elected by the residents of Texas? Would that be unpopular with the people in your district?</t>
   </si>
   <si>
@@ -194,9 +164,6 @@
   </si>
   <si>
     <t>412636</t>
-  </si>
-  <si>
-    <t>David A. Trott</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman and Ranking Member Engel, for bringing these two resolutions forward.    I support H. Res. 348. The Cold War is back. The President is largely insouciant toward Russian aggression. Someone has to stand for freedom. And I hope that Russia is irritated by this resolution, but I suspect they will be just largely amused.    I also support H. Res. 354. Anti-Semitism is rampant. Mr. Sherman, I will be happy to sign that letter. It is a problem on our college campuses. And I think calling attention to the problem of Jewish safety and security is necessary. And I just want to go on the record as also strongly supporting H. Res. 354. I yield back.</t>
@@ -601,11 +568,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -627,11 +592,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -651,13 +614,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -679,11 +640,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -703,13 +662,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -731,11 +688,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -755,13 +710,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -783,11 +736,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -807,13 +758,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -835,11 +784,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -859,13 +806,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -887,11 +832,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -911,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -939,11 +880,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -963,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -991,11 +928,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1015,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1043,11 +976,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1067,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1093,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1119,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1145,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1171,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1197,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1223,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1249,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1275,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1303,11 +1216,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1327,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1355,11 +1264,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96910.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96910.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. The committee will come to order.    Pursuant to notice, we meet today to mark up two bipartisan resolutions. Without objection, all members may have 5 days to submit statements for the record and any extraneous materials on today's business that you want to include there.    As you were all notified yesterday, we intend to consider today's measures en bloc. And so without objection, the following items previously provided to members will be considered en bloc, and are considered as read: House Resolution 348, supporting the right of the people of Ukraine to freely elect their government and determine their future. And with it, Cicilline amendment 200 in the nature of a substitute to House Resolution 348, and Cicilline second degree amendment 58 to the ANS.    Then we have House Resolution 354, expressing the sense of the House regarding the safety and security of Jewish communities in Europe, and Smith amendment 201 in the nature of a substitute to the House Resolution 354.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. Thank you for calling this markup. Let me say that I agree with every word you said. I want to put my thoughts with yours. I know we are short on time, so I will enter my full statement into the record and issue it to the press.    But I fully support these measures, and am particularly happy that our committee once again is advancing good bipartisan legislation, as we have done so often. So I ask unanimous consent that my statement be part of the record. I wish everyone a happy holiday weekend, and I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Chairman. And I thank you for bringing H. Res. 354 before the committee for markup and for your leadership on human rights issues in general and on combating anti-Semitism in particular.    Mr. Chairman, violent anti-Semitic attacks between 2013 and 2014 doubled, and in some European countries actually quadrupled. H. Res. 354 focuses on essential actions needed to prevent, mitigate, and respond to deadly anti-Semitic attacks like those in Paris, Copenhagen, and Brussels.    Specifically, it urges the U.S. Government to encourage our European allies to ensure they formally recognize, partner with, and exchange information with Jewish community security groups in their countries. There are excellent examples of this in the United States, the United Kingdom, and in France. So these best practices need to be replicated.    The resolution highlights the importance of European governments supporting several key assessments and adjusting their strategies and efforts to combat anti-Semitism accordingly. It emphasizes the importance of European governments developing public awareness and suspicious activity campaigns like ``if you see something, say something'' initiatives, helping Jewish communities developing baseline safety standards, and integrating efforts to combat violent extremism and ones to combat anti-Semitism as appropriate.    H. Res. 354 stresses relevant training for law enforcement, implementing declarations, decisions, and commitments related to anti-Semitism in the Organization for Security and Cooperation in Europe, the OSCE, and ensuring European governments have mandated and resourced senior officials to lead their anti-Semitism efforts.    Finally, the resolution affirms support for the mandate of the U.S. Special Envoy to Monitor and Combat Anti-Semitism, a position that I actually authored the amendment to create some years ago, and urges the Secretary of State to continue strong U.S. reporting on anti-Semitism.    H. Res. 354 is a blueprint for actions that are critical for the safety and security of Jewish communities in Europe and for our government's engagement with our European allies to combat anti-Semitism. The specific actions recommended here are based on consultations with leading security experts who work closely with European Jewish communities.    This resolution has broad bipartisan support. It is cosponsored by 84 Members of Congress, including 23 members of this committee. All of my fellow co-chairs of the bipartisan Task Force on Combating anti-Semitism are original cosponsors, including Ranking Member Eliot Engel, Ileana Ros-Lehtinen, Ted Deutch, who are members of this committee, and Nita Lowey, Kay Granger, Peter Roskam, and Steve Israel. It also has the strong support from many of the Jewish organizations.    I yield back, and again, I thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I want to thank you, Chairman Royce and Ranking Member Engel, for your strong support and cosponsorship of House Resolution 348, and thank you for scheduling a markup on both of these bills today.    House Res. 348 signals strong congressional support for free elections in Ukraine. I thank my many colleagues on the committee who have signed on as cosponsors as well. The democratic and economic development of Ukraine in the face of Russian aggression remains one of the most vital efforts the United States could undertake to combat Russian intransigence and show our unwavering commitment to promoting democracy and human rights around the world.    The illegal and forceful occupation of Crimea and the ongoing Russian support for separatists in eastern Ukraine are an affront to international law and diplomacy. The Minsk II agreement was an historic step toward potentially ending the violence and unrest in the country. And it is now upon the governments of Ukraine, Russia, the United States, and our European allies as implementing partners to ensure its successful execution.    A vital part of that implementation will be to hold free and fair elections throughout Ukraine, including under the terms of the agreement eventually in the Donbas region controlled by Russian-led separatists. Ukraine has local elections scheduled for most of the country except some separatist-controlled areas for October 25.    This resolution demonstrates this Congress's unwavering commitment to supporting the right of the people of Ukraine to freely elect their government and determine their future. It condemns any Russian attempts to interfere in Ukraine's elections in any way, including through intimidation, violence, or coercion.    During Ukraine's last elections, these tactics were used to prevent Ukranians from voting in certain regions. This cannot happen again. And any actions undermining these elections must be met with swift and certain international condemnation. At this delicate juncture in Ukraine's history, it is essential that the United States and our European allies continue to demonstrate steadfast support for Ukranian territorial integrity, sovereignty, and the right of the Ukranian people to participate in a free and fair electoral process.    Again, I thank my colleagues for their support and urge them to support this resolution. And with that, I yield back.</t>
   </si>
   <si>
@@ -88,6 +115,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman. I want to commend you for bringing this legislation before the committee today. Russian aggression continues to violate Ukraine's political and economic sovereignty. And unfortunately, it has gone largely unrebuked around the world. If stability and peace is ever to be reestablished in Ukraine, it is vital that the people of Ukraine have the freedom to choose their own representatives, as well as take the necessary steps to ensure that their own future, without the coercion and vicious tactics orchestrated by Putin, is possible.    As the shining example of freedom and democracy, America has a duty to support the Ukranians seeking constitutional reform and free and fair elections. This measure recognizes those realities and reasserts our support for the Ukranian people to freely elect their own government. It is a timely measure. I urge its adoption, and I yield back.</t>
   </si>
   <si>
@@ -97,6 +130,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. And I want to thank you and the ranking member for adding H. Res. 348 to this markup. And I want to thank the authors of the resolution. This committee has spoken loudly about not only Ukraine, but about Crimea as an integral part of the Ukraine, and that we are not conceding. And I am glad to say that the nonrecognition act on the Ukraine has in fact been incorporated into the defense authorization bill.    It is vital that we speak firmly and we back it up with sanctions and other measures so that Vladimir Putin never gets the wrong impression about our acquiescence in a violent military action that subverted the sovereignty of another country. We will not accept that. Ever. And I think it is really important this committee continues to speak with one voice and as firmly as possible on a bipartisan basis. And indeed we have.    So I thank Mr. Cicilline in particular for his leadership on this resolution, and look forward to voting for it. And thank you, Mr. Chairman, and you, Mr. Engel, the ranking member, for your leadership as well.</t>
   </si>
   <si>
@@ -106,6 +145,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Well, I hate to be the skunk at the lawn party here, but let me just note that I do support the basic goal of this legislation, which is to reaffirm that we believe as Americans that the democratic process should be followed in Ukraine, and that we are upset, and we know the great challenge there that they have.    And certainly the first two whereases, ``strongly support the right of the people of Ukraine to freely elect their government and determine their future.'' Yes. Of course. ``Urges the administration to expedite assistance to Ukraine to facilitate the political, economic, and social reforms necessary for free and fair elections that meet international standards.'' Yes. And there is no doubt about that. We want to end the conflict and upheaval that is going on that is so detrimental to all of the people of Ukraine and destabilizing to Europe. And so this puts us on record.    Unfortunately, we can't seem to go on record doing that without again giving Russia a kick in the pants, and basically ignoring what started the destabilization of Ukraine in the first place. Basically, we blame it, yes, Yanukovych was president, whereas he fled the country. It doesn't say--it doesn't start there. It doesn't start with Yanukovych fleeing the country.    This whole episode that has destabilized Ukraine started when violence, instigated by internal Ukranian opposition, as well--and they were in coordination and consultation with other foreign powers, meaning our European friends--created violence, a violent situation that led to the destabilization of an elected government.    We can close our eyes all we want, we can pretend this is all Russia. Yanukovych was an elected government. There was huge violence that was caused when he made a major policy decision. Instead of letting the election take care of it, they had massive, not just demonstrations, but we are talking about massive violence.    And I know that there has been an effort to try to make, oh, no, that was just Yanukovych attacking the demonstrators. That was not what happened. We now have every evidence, I met with a group of Ukranians just a couple nights ago, clearly, what we have was violence against an elected government. And Mr. Smith was there to see that Yanukovych was elected in a fair election. And instead of waiting for the next election, our European friends had to collude with forces inside of Ukraine to create a destabilization of an elected government.    Now, the bottom line is that has not even been touched on here. Everything is Russia's fault. Well, yes, when Yanukovych fled and the elected government was overthrown, the fact is the Russians did act, and I opposed that. I think when the Russians sent troops in that was wrong. We have every reason to condemn that. The Russians should not have sent troops in.    And yes, we need to call upon--what we have here is to make sure that we are on the side of free elections, and that we want to help the Ukranians. But then we condemn the part of outside forces, specifically the Government of Russia, ignoring the fact that other governments have been involved in overthrowing an elected government.    Either we should leave that out or we should just say ``attempts by outside forces'' and leave out this little jab at Russia. We are not going to make anything better by continuing to jab Russia rather than looking at ways we can cooperate to end the conflict in Ukraine.    Again, let's reach out--that is what happened in the Minsk agreement, which the chairman already mentioned. The Minsk agreement sets out a plan. And Russians agreed to it. Let's work with them to see how we implement the plan rather than kicking them in the pants.    Well, I am going to be opposing this, but I do think the actual goal of this, which is to try to say we are behind free elections and want Ukraine to come out of it, that certainly is a worthy goal.    This, you know, doesn't--it is not going to achieve that. It is going to actually achieve the opposite, because in Russia it will be looked at as a slap in the face. Why should we ever cooperate with these bums who are blaming it all on us and forgetting the fact that an elected government in Ukraine was overthrown?    So with that said, I stand in opposition, and I stand in favor of the spirit of what you are trying to accomplish, but this will not achieve your goal and go in the opposite direction.</t>
   </si>
   <si>
@@ -115,6 +160,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chairman. Just a little change of pace here. So Mr. Chairman, thank you. I am a cosponsor, a proud cosponsor of both resolutions. I thank the authors.    And first, I want to just say in terms of House Resolution 348, that I found our trip to Ukraine was very enlightening, and really highlighted the necessity for the free and fair elections in order for Ukraine to regain its civility.    As to House Resolution 354, and Mr. Smith, I do thank you again for that, and I do want to make a few remarks. Because I want to add my concern for the safety and security of Jewish communities in Europe. The rise of anti-Semitic incidents throughout Europe in recent years is deeply troubling. In the past 2 years, terrorists have murdered Jews in the capital cities of Belgium, Denmark, and France. Jews and Jewish institutions, synagogues, and schools across Europe have suffered numerous violent attacks.    As a result of this threatening environment, according to polls done by the ADL and other reputable organizations, more than 40 percent of Jews in Belgium, France, and Hungary are considering emigration. Journalists, scholars, and politicians are debating whether there can be a future for the Jewish community in Europe, where Jews are afraid to attend events in holy sites, and where again, according to ADL, 20 percent of European Jews have experienced at least one incident of anti-Semitic physical attack or harassment.    Fortunately, educated observers believe that today's events in Europe are not analogous to the 1930s Germany. Then, the hatred, the persecution and extermination of Jews was state-sponsored. In contrast, today's leaders across Europe are working to stem the tide of anti-Semitism, and key European leaders have spoken out against anti-Semitism and have taken concrete actions to fight it.    With that said, however, I agree with those who believe that this is a defining moment for Europe. Our European partners' and allies' ability to confront anti-Semitism will ultimately impact the very essence of the character of their nations. And as the French prime minister stated, if Jews flee in large numbers, the soul of the French Republic is at risk. France will no longer be France.    And that is one of the reasons, of course, why House Resolution 354 is so important. We must support European governments, law enforcement agencies, and other entities to bolster Jewish security and preparedness, tighten communications with Jewish communities, and combat violent extremism broadly with counterradicalization and education.    And ultimately, helping Europe stem the rising tide of anti-Semitism means helping European nations to fulfill the principles of democracy, human dignity, openness, and pluralism, and the noble principals upon which these nations were founded. I yield back.</t>
   </si>
   <si>
@@ -124,6 +175,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. I thank the chairman. I appreciate the words of my friend from California, Mr. Rohrabacher, but I see this completely different. The Russian bear invaded Georgia, gobbled up one-third of the territory, and it is still in Georgia. Still hungry for more land, it went into Crimea, took it, claimed it as its own, and then still on the move, the bear went into eastern Ukraine, where it is now. And we all know that Russia now is in Syria, based on some faulty excuse.    Ukranians have the right to self-determination. This resolution says the Ukranians will decide what their government is going to be, not the Russians. Contrary to what Putin said, the Napoleon of Siberia, Ukraine should decide about Ukraine, not him.    So I think it is a good thing that the United States, a country that believes in self-determination and democracy, support the Ukraine and the Ukranians in their quest for really not just elections, but to be rid of the invaders from Russia. I think we ought to do more for Ukraine than the United States has done. Besides sending them meals ready to eat, we ought to help them defend their own sovereignty against Russia, which is another issue.    This resolution is a good idea. America stands for democracy and self-determination even for Ukranians. So I totally support it, I am glad I am a cosponsor, and I appreciate the chair and ranking member bringing this up before the committee for a vote. I yield back.</t>
   </si>
   <si>
@@ -133,6 +190,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. I want to comment about both bills. I disagree with a portion of what Dana Rohrabacher had to say for reasons everybody else has already expressed. I agree with a portion of what he said. He is right on the history, and that is a democratic elected government reneged on a giant promise, and instead of distributing campaign leaflets there was a regime-threatening presence of large numbers of people. Woe be to our state and Federal Governments if 1 million people will demand extraconstitutional governmental changes each time politicians renege on a promise. It has happened here, I am told.    There is one part of the resolution that I think we can all agree on, and it may mean more if read in an American context. We say we strongly support the right of the people of Ukraine to freely elect their government. I turn to the gentleman from Texas, Mr. Poe, and would say, as a Texan, would you think that Texans were free to elect their government if your governor was appointed by President Barack Obama rather than elected by the residents of Texas? Would that be unpopular with the people in your district?</t>
   </si>
   <si>
@@ -164,6 +227,12 @@
   </si>
   <si>
     <t>412636</t>
+  </si>
+  <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman and Ranking Member Engel, for bringing these two resolutions forward.    I support H. Res. 348. The Cold War is back. The President is largely insouciant toward Russian aggression. Someone has to stand for freedom. And I hope that Russia is irritated by this resolution, but I suspect they will be just largely amused.    I also support H. Res. 354. Anti-Semitism is rampant. Mr. Sherman, I will be happy to sign that letter. It is a problem on our college campuses. And I think calling attention to the problem of Jewish safety and security is necessary. And I just want to go on the record as also strongly supporting H. Res. 354. I yield back.</t>
@@ -518,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,725 +617,878 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
       <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
       <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
       <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
       <c r="H22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
       <c r="H24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
       <c r="H26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
       <c r="H28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
       <c r="H30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96910.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96910.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>400380</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Smith</t>
@@ -587,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,875 +632,968 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
